--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>613.2331508732907</v>
+        <v>649.8200422228762</v>
       </c>
       <c r="AB2" t="n">
-        <v>839.0526509620825</v>
+        <v>889.1124498063143</v>
       </c>
       <c r="AC2" t="n">
-        <v>758.9746435720524</v>
+        <v>804.2568054739597</v>
       </c>
       <c r="AD2" t="n">
-        <v>613233.1508732907</v>
+        <v>649820.0422228762</v>
       </c>
       <c r="AE2" t="n">
-        <v>839052.6509620824</v>
+        <v>889112.4498063143</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.124223148906038e-06</v>
+        <v>3.930368977747588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.153125</v>
       </c>
       <c r="AH2" t="n">
-        <v>758974.6435720524</v>
+        <v>804256.8054739598</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.9065178021212</v>
+        <v>217.2977190294773</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.9432080916702</v>
+        <v>297.3163256747753</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.7528387580975</v>
+        <v>268.9408728385464</v>
       </c>
       <c r="AD3" t="n">
-        <v>192906.5178021212</v>
+        <v>217297.7190294773</v>
       </c>
       <c r="AE3" t="n">
-        <v>263943.2080916702</v>
+        <v>297316.3256747753</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.018532440063576e-06</v>
+        <v>7.435337123894998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>238752.8387580975</v>
+        <v>268940.8728385464</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.0155455492532</v>
+        <v>207.4067467766092</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.4099434964037</v>
+        <v>283.7830610795089</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.5111699417428</v>
+        <v>256.6992040221917</v>
       </c>
       <c r="AD4" t="n">
-        <v>183015.5455492532</v>
+        <v>207406.7467766092</v>
       </c>
       <c r="AE4" t="n">
-        <v>250409.9434964038</v>
+        <v>283783.0610795089</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.144576585428236e-06</v>
+        <v>7.668551792995604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>226511.1699417428</v>
+        <v>256699.2040221917</v>
       </c>
     </row>
   </sheetData>
@@ -2561,28 +2561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.474913585234</v>
+        <v>391.7660499833856</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.7447033305804</v>
+        <v>536.0315930855865</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.1950333986995</v>
+        <v>484.8734901665633</v>
       </c>
       <c r="AD2" t="n">
-        <v>356474.913585234</v>
+        <v>391766.0499833856</v>
       </c>
       <c r="AE2" t="n">
-        <v>487744.7033305804</v>
+        <v>536031.5930855864</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.848980906301238e-06</v>
+        <v>5.430597297467068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.517708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>441195.0333986995</v>
+        <v>484873.4901665633</v>
       </c>
     </row>
     <row r="3">
@@ -2667,28 +2667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.5880009791983</v>
+        <v>200.1154252446325</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.6154934524056</v>
+        <v>273.8067532890596</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.5560498668528</v>
+        <v>247.6750210454239</v>
       </c>
       <c r="AD3" t="n">
-        <v>176588.0009791983</v>
+        <v>200115.4252446325</v>
       </c>
       <c r="AE3" t="n">
-        <v>241615.4934524056</v>
+        <v>273806.7532890596</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.142627708336104e-06</v>
+        <v>7.896487753759459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.794791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>218556.0498668528</v>
+        <v>247675.0210454239</v>
       </c>
     </row>
     <row r="4">
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.6758099719665</v>
+        <v>200.2032342374007</v>
       </c>
       <c r="AB4" t="n">
-        <v>241.7356375901704</v>
+        <v>273.9268974268244</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.6647276167328</v>
+        <v>247.7836987953038</v>
       </c>
       <c r="AD4" t="n">
-        <v>176675.8099719665</v>
+        <v>200203.2342374007</v>
       </c>
       <c r="AE4" t="n">
-        <v>241735.6375901704</v>
+        <v>273926.8974268244</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.153040870881649e-06</v>
+        <v>7.916336848659617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.785416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>218664.7276167328</v>
+        <v>247783.6987953038</v>
       </c>
     </row>
   </sheetData>
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.1014902094331</v>
+        <v>209.1137160463862</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.3687573565011</v>
+        <v>286.1186117405859</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.8058443737913</v>
+        <v>258.8118530061423</v>
       </c>
       <c r="AD2" t="n">
-        <v>188101.4902094331</v>
+        <v>209113.7160463862</v>
       </c>
       <c r="AE2" t="n">
-        <v>257368.7573565011</v>
+        <v>286118.6117405859</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.797242592078378e-06</v>
+        <v>8.087132971598468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>232805.8443737913</v>
+        <v>258811.8530061423</v>
       </c>
     </row>
     <row r="3">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.6916285253598</v>
+        <v>209.7038543623129</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.1762106354167</v>
+        <v>286.9260650195016</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.5362354450353</v>
+        <v>259.5422440773863</v>
       </c>
       <c r="AD3" t="n">
-        <v>188691.6285253598</v>
+        <v>209703.8543623129</v>
       </c>
       <c r="AE3" t="n">
-        <v>258176.2106354168</v>
+        <v>286926.0650195015</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.804483774900648e-06</v>
+        <v>8.102554795971109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.610416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>233536.2354450353</v>
+        <v>259542.2440773862</v>
       </c>
     </row>
   </sheetData>
@@ -3473,28 +3473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.566269910744</v>
+        <v>206.4246106571238</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.5317129809248</v>
+        <v>282.439259112042</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.4304407245841</v>
+        <v>255.4836526284616</v>
       </c>
       <c r="AD2" t="n">
-        <v>184566.269910744</v>
+        <v>206424.6106571238</v>
       </c>
       <c r="AE2" t="n">
-        <v>252531.7129809248</v>
+        <v>282439.259112042</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.002109648836697e-06</v>
+        <v>8.125666243159913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>228430.4407245841</v>
+        <v>255483.6526284616</v>
       </c>
     </row>
     <row r="3">
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.9219052626564</v>
+        <v>204.7802460090362</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.2818207251642</v>
+        <v>280.1893668562814</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.3952750279689</v>
+        <v>253.4484869318464</v>
       </c>
       <c r="AD3" t="n">
-        <v>182921.9052626564</v>
+        <v>204780.2460090362</v>
       </c>
       <c r="AE3" t="n">
-        <v>250281.8207251642</v>
+        <v>280189.3668562814</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.03771331329177e-06</v>
+        <v>8.197953991317805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>226395.2750279689</v>
+        <v>253448.4869318464</v>
       </c>
     </row>
   </sheetData>
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2189457961017</v>
+        <v>230.3120118986394</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.6308358434412</v>
+        <v>315.1230553284339</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.1797525630413</v>
+        <v>285.0481532059676</v>
       </c>
       <c r="AD2" t="n">
-        <v>210218.9457961017</v>
+        <v>230312.0118986394</v>
       </c>
       <c r="AE2" t="n">
-        <v>287630.8358434411</v>
+        <v>315123.0553284339</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.49077231060215e-06</v>
+        <v>7.773268103956716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>260179.7525630413</v>
+        <v>285048.1532059676</v>
       </c>
     </row>
     <row r="3">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.8985121457416</v>
+        <v>231.9915782482794</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.9288926202552</v>
+        <v>317.421112105248</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.25848602642</v>
+        <v>287.1268866693461</v>
       </c>
       <c r="AD3" t="n">
-        <v>211898.5121457416</v>
+        <v>231991.5782482794</v>
       </c>
       <c r="AE3" t="n">
-        <v>289928.8926202552</v>
+        <v>317421.112105248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49077231060215e-06</v>
+        <v>7.773268103956716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>262258.48602642</v>
+        <v>287126.8866693461</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.3525113457459</v>
+        <v>437.9842023285215</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.5164565632809</v>
+        <v>599.2693081251772</v>
       </c>
       <c r="AC2" t="n">
-        <v>497.9759386035801</v>
+        <v>542.075886437466</v>
       </c>
       <c r="AD2" t="n">
-        <v>402352.5113457459</v>
+        <v>437984.2023285215</v>
       </c>
       <c r="AE2" t="n">
-        <v>550516.4565632809</v>
+        <v>599269.3081251772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.65304017478124e-06</v>
+        <v>5.016271973873127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.871874999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>497975.9386035801</v>
+        <v>542075.886437466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.3109202515076</v>
+        <v>202.065380906691</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.9728676106118</v>
+        <v>276.4747686518593</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.688439543996</v>
+        <v>250.0884047665818</v>
       </c>
       <c r="AD3" t="n">
-        <v>178310.9202515076</v>
+        <v>202065.380906691</v>
       </c>
       <c r="AE3" t="n">
-        <v>243972.8676106118</v>
+        <v>276474.7686518593</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.143103834589882e-06</v>
+        <v>7.833630205774472e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.760416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>220688.439543996</v>
+        <v>250088.4047665818</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.332804819183</v>
+        <v>201.0872654743664</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.6345669246985</v>
+        <v>275.1364679659459</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.477864397229</v>
+        <v>248.8778296198148</v>
       </c>
       <c r="AD4" t="n">
-        <v>177332.804819183</v>
+        <v>201087.2654743664</v>
       </c>
       <c r="AE4" t="n">
-        <v>242634.5669246985</v>
+        <v>275136.467965946</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.165986474352074e-06</v>
+        <v>7.876895869679009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.739583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>219477.864397229</v>
+        <v>248877.8296198148</v>
       </c>
     </row>
   </sheetData>
@@ -4788,28 +4788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.4893028316538</v>
+        <v>252.8880697860498</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.7879237863083</v>
+        <v>346.0126137153542</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.6039535162799</v>
+        <v>312.9896554942174</v>
       </c>
       <c r="AD2" t="n">
-        <v>223489.3028316539</v>
+        <v>252888.0697860498</v>
       </c>
       <c r="AE2" t="n">
-        <v>305787.9237863083</v>
+        <v>346012.6137153542</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.236435091412086e-06</v>
+        <v>7.419743473228247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.760416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>276603.9535162799</v>
+        <v>312989.6554942174</v>
       </c>
     </row>
   </sheetData>
@@ -5085,28 +5085,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.812893052463</v>
+        <v>259.6888152403515</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.0178477217261</v>
+        <v>355.3176936738077</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.0940390971662</v>
+        <v>321.406671681094</v>
       </c>
       <c r="AD2" t="n">
-        <v>236812.893052463</v>
+        <v>259688.8152403515</v>
       </c>
       <c r="AE2" t="n">
-        <v>324017.8477217261</v>
+        <v>355317.6936738077</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522928449087304e-06</v>
+        <v>6.904891073571826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.597916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>293094.0390971662</v>
+        <v>321406.671681094</v>
       </c>
     </row>
     <row r="3">
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4116129407132</v>
+        <v>195.2021942740269</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.9011750889165</v>
+        <v>267.084253918628</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.3870980278772</v>
+        <v>241.5941075798169</v>
       </c>
       <c r="AD3" t="n">
-        <v>172411.6129407132</v>
+        <v>195202.1942740269</v>
       </c>
       <c r="AE3" t="n">
-        <v>235901.1750889165</v>
+        <v>267084.253918628</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129027009997501e-06</v>
+        <v>8.092835876713592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.922916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>213387.0980278772</v>
+        <v>241594.1075798169</v>
       </c>
     </row>
   </sheetData>
@@ -5488,28 +5488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.8465669573737</v>
+        <v>339.1384109979339</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.1552070781897</v>
+        <v>464.0241356581214</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.910920648289</v>
+        <v>419.7383234128743</v>
       </c>
       <c r="AD2" t="n">
-        <v>315846.5669573737</v>
+        <v>339138.4109979339</v>
       </c>
       <c r="AE2" t="n">
-        <v>432155.2070781897</v>
+        <v>464024.1356581214</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.060536149764883e-06</v>
+        <v>5.884502285392778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.185416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>390910.920648289</v>
+        <v>419738.3234128742</v>
       </c>
     </row>
     <row r="3">
@@ -5594,28 +5594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.9982333640339</v>
+        <v>198.2899878960427</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.4403032657414</v>
+        <v>271.3091093761083</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.5884567787046</v>
+        <v>245.4157487620586</v>
       </c>
       <c r="AD3" t="n">
-        <v>174998.2333640339</v>
+        <v>198289.9878960427</v>
       </c>
       <c r="AE3" t="n">
-        <v>239440.3032657414</v>
+        <v>271309.1093761083</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.145107649101644e-06</v>
+        <v>7.969811248990329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>216588.4567787046</v>
+        <v>245415.7487620586</v>
       </c>
     </row>
     <row r="4">
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.9867395007884</v>
+        <v>198.2784940327972</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.4245768549754</v>
+        <v>271.2933829653424</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.57423127451</v>
+        <v>245.401523257864</v>
       </c>
       <c r="AD4" t="n">
-        <v>174986.7395007884</v>
+        <v>198278.4940327972</v>
       </c>
       <c r="AE4" t="n">
-        <v>239424.5768549754</v>
+        <v>271293.3829653424</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.155924417812545e-06</v>
+        <v>7.990608683519816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.81875</v>
       </c>
       <c r="AH4" t="n">
-        <v>216574.23127451</v>
+        <v>245401.523257864</v>
       </c>
     </row>
   </sheetData>
@@ -5997,28 +5997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.9958111195383</v>
+        <v>576.2818920224447</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.4271623049647</v>
+        <v>788.4943084278667</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.4797278674685</v>
+        <v>713.2415182902226</v>
       </c>
       <c r="AD2" t="n">
-        <v>527995.8111195383</v>
+        <v>576281.8920224448</v>
       </c>
       <c r="AE2" t="n">
-        <v>722427.1623049646</v>
+        <v>788494.3084278667</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293695771223363e-06</v>
+        <v>4.272981253166593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.678125000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>653479.7278674685</v>
+        <v>713241.5182902226</v>
       </c>
     </row>
     <row r="3">
@@ -6103,28 +6103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.5305457260159</v>
+        <v>208.7162566047547</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.4828335753402</v>
+        <v>285.574790197873</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.3862263008657</v>
+        <v>258.3199330282073</v>
       </c>
       <c r="AD3" t="n">
-        <v>184530.5457260159</v>
+        <v>208716.2566047547</v>
       </c>
       <c r="AE3" t="n">
-        <v>252482.8335753402</v>
+        <v>285574.790197873</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.099330492011392e-06</v>
+        <v>7.636741787057642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.736458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>228386.2263008657</v>
+        <v>258319.9330282073</v>
       </c>
     </row>
     <row r="4">
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.6756366015119</v>
+        <v>205.8613474802506</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.5766209614942</v>
+        <v>281.668577584027</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.8528171364801</v>
+        <v>254.7865238638217</v>
       </c>
       <c r="AD4" t="n">
-        <v>181675.6366015119</v>
+        <v>205861.3474802506</v>
       </c>
       <c r="AE4" t="n">
-        <v>248576.6209614942</v>
+        <v>281668.577584027</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.143739783132654e-06</v>
+        <v>7.719472928130621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.696875</v>
       </c>
       <c r="AH4" t="n">
-        <v>224852.8171364801</v>
+        <v>254786.5238638217</v>
       </c>
     </row>
     <row r="5">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.6350017840961</v>
+        <v>205.8207126628348</v>
       </c>
       <c r="AB5" t="n">
-        <v>248.5210226116243</v>
+        <v>281.6129792341571</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.802525015089</v>
+        <v>254.7362317424306</v>
       </c>
       <c r="AD5" t="n">
-        <v>181635.0017840961</v>
+        <v>205820.7126628348</v>
       </c>
       <c r="AE5" t="n">
-        <v>248521.0226116243</v>
+        <v>281612.9792341571</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.155062681862248e-06</v>
+        <v>7.740566629662474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.686458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>224802.525015089</v>
+        <v>254736.2317424306</v>
       </c>
     </row>
   </sheetData>
@@ -6612,28 +6612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.2094374390129</v>
+        <v>213.3651530712102</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.621187868965</v>
+        <v>291.9356154381114</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.6524288864707</v>
+        <v>264.0736900349938</v>
       </c>
       <c r="AD2" t="n">
-        <v>191209.4374390129</v>
+        <v>213365.1530712102</v>
       </c>
       <c r="AE2" t="n">
-        <v>261621.187868965</v>
+        <v>291935.6154381114</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.95377158618656e-06</v>
+        <v>7.9253246866442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.191666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>236652.4288864707</v>
+        <v>264073.6900349937</v>
       </c>
     </row>
     <row r="3">
@@ -6718,28 +6718,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.9094997582394</v>
+        <v>205.0652153904366</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.2648469667286</v>
+        <v>280.579274535875</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.3799212212156</v>
+        <v>253.8011823697386</v>
       </c>
       <c r="AD3" t="n">
-        <v>182909.4997582394</v>
+        <v>205065.2153904366</v>
       </c>
       <c r="AE3" t="n">
-        <v>250264.8469667286</v>
+        <v>280579.274535875</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.076904375294852e-06</v>
+        <v>8.172144036721156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.064583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>226379.9212212156</v>
+        <v>253801.1823697386</v>
       </c>
     </row>
   </sheetData>
@@ -7015,28 +7015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.9509462050434</v>
+        <v>206.1561928727666</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.0580440575054</v>
+        <v>282.0719980577279</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.9065395019263</v>
+        <v>255.1514424537169</v>
       </c>
       <c r="AD2" t="n">
-        <v>184950.9462050434</v>
+        <v>206156.1928727666</v>
       </c>
       <c r="AE2" t="n">
-        <v>253058.0440575054</v>
+        <v>282071.9980577279</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.898781039089308e-06</v>
+        <v>8.156493755419607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>228906.5395019263</v>
+        <v>255151.4424537169</v>
       </c>
     </row>
     <row r="3">
@@ -7121,28 +7121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.4098446743836</v>
+        <v>206.6150913421069</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.6859291884281</v>
+        <v>282.6998831886505</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.4745001571962</v>
+        <v>255.7194031089868</v>
       </c>
       <c r="AD3" t="n">
-        <v>185409.8446743836</v>
+        <v>206615.0913421069</v>
       </c>
       <c r="AE3" t="n">
-        <v>253685.9291884281</v>
+        <v>282699.8831886505</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.906901082907703e-06</v>
+        <v>8.173481394898316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.41875</v>
       </c>
       <c r="AH3" t="n">
-        <v>229474.5001571962</v>
+        <v>255719.4031089868</v>
       </c>
     </row>
   </sheetData>
@@ -12159,28 +12159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.5815393226856</v>
+        <v>223.2923540767955</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.4985581990678</v>
+        <v>305.5184498111454</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.3506256271749</v>
+        <v>276.3601977590974</v>
       </c>
       <c r="AD2" t="n">
-        <v>192581.5393226856</v>
+        <v>223292.3540767955</v>
       </c>
       <c r="AE2" t="n">
-        <v>263498.5581990678</v>
+        <v>305518.4498111454</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.667289120412521e-06</v>
+        <v>7.972157614141913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.86875</v>
       </c>
       <c r="AH2" t="n">
-        <v>238350.6256271749</v>
+        <v>276360.1977590974</v>
       </c>
     </row>
     <row r="3">
@@ -12265,28 +12265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.4854746436101</v>
+        <v>224.1962893977201</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.7353623839681</v>
+        <v>306.7552539960456</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.4693909565343</v>
+        <v>277.4789630884567</v>
       </c>
       <c r="AD3" t="n">
-        <v>193485.4746436101</v>
+        <v>224196.2893977201</v>
       </c>
       <c r="AE3" t="n">
-        <v>264735.3623839681</v>
+        <v>306755.2539960456</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.673288985752325e-06</v>
+        <v>7.985200456029211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.861458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>239469.3909565342</v>
+        <v>277478.9630884567</v>
       </c>
     </row>
   </sheetData>
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.9427875982648</v>
+        <v>295.9069561078586</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.9287016244347</v>
+        <v>404.8729518403368</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.2456816800478</v>
+        <v>366.2324455594511</v>
       </c>
       <c r="AD2" t="n">
-        <v>257942.7875982648</v>
+        <v>295906.9561078586</v>
       </c>
       <c r="AE2" t="n">
-        <v>352928.7016244347</v>
+        <v>404872.9518403368</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.861244387008722e-06</v>
+        <v>6.805546923729273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.697916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>319245.6816800478</v>
+        <v>366232.4455594511</v>
       </c>
     </row>
   </sheetData>
@@ -12859,28 +12859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.9754601883136</v>
+        <v>303.4598882372027</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.0240909894696</v>
+        <v>415.207206791554</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.9003882704897</v>
+        <v>375.580413722342</v>
       </c>
       <c r="AD2" t="n">
-        <v>268975.4601883136</v>
+        <v>303459.8882372027</v>
       </c>
       <c r="AE2" t="n">
-        <v>368024.0909894696</v>
+        <v>415207.206791554</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.280810487116753e-06</v>
+        <v>6.366669293187941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.885416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>332900.3882704896</v>
+        <v>375580.413722342</v>
       </c>
     </row>
     <row r="3">
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.2642579261455</v>
+        <v>196.3107705284523</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.0678015740263</v>
+        <v>268.6010568568648</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.4423833186191</v>
+        <v>242.9661489744752</v>
       </c>
       <c r="AD3" t="n">
-        <v>173264.2579261455</v>
+        <v>196310.7705284523</v>
       </c>
       <c r="AE3" t="n">
-        <v>237067.8015740263</v>
+        <v>268601.0568568648</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.14386583006009e-06</v>
+        <v>8.041495672771994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.867708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214442.383318619</v>
+        <v>242966.1489744752</v>
       </c>
     </row>
     <row r="4">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.056731091147</v>
+        <v>197.1032436934539</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.1520983198295</v>
+        <v>269.6853536026679</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.4231963048231</v>
+        <v>243.9469619606793</v>
       </c>
       <c r="AD4" t="n">
-        <v>174056.7310911471</v>
+        <v>197103.2436934539</v>
       </c>
       <c r="AE4" t="n">
-        <v>238152.0983198295</v>
+        <v>269685.3536026679</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.14386583006009e-06</v>
+        <v>8.041495672771994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.867708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>215423.1963048231</v>
+        <v>243946.9619606793</v>
       </c>
     </row>
   </sheetData>
@@ -13368,28 +13368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.2280142775923</v>
+        <v>503.1032550439451</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.2819817798252</v>
+        <v>688.3680689002699</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.2698066766545</v>
+        <v>622.67118653508</v>
       </c>
       <c r="AD2" t="n">
-        <v>467228.0142775922</v>
+        <v>503103.255043945</v>
       </c>
       <c r="AE2" t="n">
-        <v>639281.9817798252</v>
+        <v>688368.0689002699</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467868676549906e-06</v>
+        <v>4.630689607473628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.258333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>578269.8066766545</v>
+        <v>622671.18653508</v>
       </c>
     </row>
     <row r="3">
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.098752023683</v>
+        <v>204.0724134319316</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.4190579148721</v>
+        <v>279.2208790969181</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.9011688788682</v>
+        <v>252.5724302849553</v>
       </c>
       <c r="AD3" t="n">
-        <v>180098.752023683</v>
+        <v>204072.4134319316</v>
       </c>
       <c r="AE3" t="n">
-        <v>246419.0579148721</v>
+        <v>279220.879096918</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.136838264584377e-06</v>
+        <v>7.762331173306551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.733333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>222901.1688788682</v>
+        <v>252572.4302849553</v>
       </c>
     </row>
     <row r="4">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.0751864957028</v>
+        <v>204.0488479039514</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.3868145198518</v>
+        <v>279.1886357018977</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.8720027482148</v>
+        <v>252.5432641543018</v>
       </c>
       <c r="AD4" t="n">
-        <v>180075.1864957028</v>
+        <v>204048.8479039514</v>
       </c>
       <c r="AE4" t="n">
-        <v>246386.8145198518</v>
+        <v>279188.6357018977</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.14795879755369e-06</v>
+        <v>7.783197654955223e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.723958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>222872.0027482148</v>
+        <v>252543.2641543018</v>
       </c>
     </row>
     <row r="5">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.1029563564067</v>
+        <v>204.0766177646554</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.4248104683867</v>
+        <v>279.2266316504327</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.9063724167491</v>
+        <v>252.5776338228362</v>
       </c>
       <c r="AD5" t="n">
-        <v>180102.9563564067</v>
+        <v>204076.6177646554</v>
       </c>
       <c r="AE5" t="n">
-        <v>246424.8104683867</v>
+        <v>279226.6316504327</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.158931056750078e-06</v>
+        <v>7.803785916848581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.713541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>222906.3724167491</v>
+        <v>252577.6338228362</v>
       </c>
     </row>
   </sheetData>
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.6650388417644</v>
+        <v>374.3806628033597</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.6940058214807</v>
+        <v>512.2441393567238</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.7758410553791</v>
+        <v>463.3562776356824</v>
       </c>
       <c r="AD2" t="n">
-        <v>328665.0388417644</v>
+        <v>374380.6628033597</v>
       </c>
       <c r="AE2" t="n">
-        <v>449694.0058214808</v>
+        <v>512244.1393567239</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.284372113795042e-06</v>
+        <v>5.713041296671533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>406775.8410553791</v>
+        <v>463356.2776356824</v>
       </c>
     </row>
   </sheetData>
@@ -14280,28 +14280,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.8982110395752</v>
+        <v>205.4408536422402</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.6176453607149</v>
+        <v>281.0932393639825</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.6036104351447</v>
+        <v>254.2660951160059</v>
       </c>
       <c r="AD2" t="n">
-        <v>183898.2110395752</v>
+        <v>205440.8536422402</v>
       </c>
       <c r="AE2" t="n">
-        <v>251617.6453607149</v>
+        <v>281093.2393639825</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965570999341739e-06</v>
+        <v>8.166234760941533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.289583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>227603.6104351447</v>
+        <v>254266.0951160059</v>
       </c>
     </row>
     <row r="3">
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.6874468229407</v>
+        <v>205.2300894256057</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.3292684612547</v>
+        <v>280.8048624645224</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.3427558222294</v>
+        <v>254.0052405030906</v>
       </c>
       <c r="AD3" t="n">
-        <v>183687.4468229407</v>
+        <v>205230.0894256057</v>
       </c>
       <c r="AE3" t="n">
-        <v>251329.2684612547</v>
+        <v>280804.8624645224</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.982227573297135e-06</v>
+        <v>8.200535368156821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.271875</v>
       </c>
       <c r="AH3" t="n">
-        <v>227342.7558222294</v>
+        <v>254005.2405030906</v>
       </c>
     </row>
   </sheetData>
@@ -14683,28 +14683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.6557911387739</v>
+        <v>232.0931544503001</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.8603027966557</v>
+        <v>317.5600931460785</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.4827581087909</v>
+        <v>287.252603554701</v>
       </c>
       <c r="AD2" t="n">
-        <v>209655.7911387739</v>
+        <v>232093.1544503001</v>
       </c>
       <c r="AE2" t="n">
-        <v>286860.3027966557</v>
+        <v>317560.0931460785</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.768626961892544e-06</v>
+        <v>7.466343860137895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.345833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>259482.7581087909</v>
+        <v>287252.603554701</v>
       </c>
     </row>
     <row r="3">
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.9169191936748</v>
+        <v>205.5301594708518</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.2243132798711</v>
+        <v>281.215431538584</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.7748349599053</v>
+        <v>254.3766254409611</v>
       </c>
       <c r="AD3" t="n">
-        <v>171916.9191936748</v>
+        <v>205530.1594708518</v>
       </c>
       <c r="AE3" t="n">
-        <v>235224.3132798711</v>
+        <v>281215.4315385839</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.107441776363901e-06</v>
+        <v>8.137598387405195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.9875</v>
       </c>
       <c r="AH3" t="n">
-        <v>212774.8349599053</v>
+        <v>254376.6254409611</v>
       </c>
     </row>
     <row r="4">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.7068103663411</v>
+        <v>206.3200506435181</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.3050772298517</v>
+        <v>282.2961954885645</v>
       </c>
       <c r="AC4" t="n">
-        <v>213.7524523153619</v>
+        <v>255.3542427964176</v>
       </c>
       <c r="AD4" t="n">
-        <v>172706.8103663411</v>
+        <v>206320.0506435181</v>
       </c>
       <c r="AE4" t="n">
-        <v>236305.0772298517</v>
+        <v>282296.1954885646</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.107441776363901e-06</v>
+        <v>8.137598387405195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.9875</v>
       </c>
       <c r="AH4" t="n">
-        <v>213752.4523153619</v>
+        <v>255354.2427964176</v>
       </c>
     </row>
   </sheetData>
